--- a/Apollo247/Apollo247/src/test/resources/ExcelData/SortOptions.xlsx
+++ b/Apollo247/Apollo247/src/test/resources/ExcelData/SortOptions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TRAINING\JAVA\Apollo247\Apollo247\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8205BD-D70C-4CF2-81FC-68E8EA767CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E77DF-5AE4-4FB7-98FA-EE250400CC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{AD8B912E-95C8-44E2-90B9-C462E1688E47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EA6A63B6-014A-4D12-B332-1C0A7227782A}"/>
   </bookViews>
   <sheets>
-    <sheet name="SortOptions" sheetId="1" r:id="rId1"/>
+    <sheet name="SortByData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,18 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>sortOption</t>
-  </si>
-  <si>
-    <t>expectedOrder</t>
+    <t>SortOption</t>
   </si>
   <si>
     <t>Price:Low to High</t>
   </si>
   <si>
-    <t>ascending order</t>
+    <t>Price:High to Low</t>
   </si>
 </sst>
 </file>
@@ -418,32 +415,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EBDDA3-C72A-4773-931F-FE6D3D63C1D7}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AEE4A7-FC3D-4362-86CC-67A5EAAD02A7}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
